--- a/users.xlsx
+++ b/users.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,53 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45750.99573267494</v>
+        <v>45750.99573267361</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rohan Bhambare</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>devmailproject0@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$bJNaf0HoGYnu3OBW$f88aed9489912cb7c2f14455ee8988f7b64115bbeb798cce209ba979c2b80181a6cceb483b883b7fb68e913b8ea549b4491d3a59b2e9dd9cbbf062554305b8ed</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45752.21000189815</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Vivek Totre</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tech@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$AG7HNQuB46fotiUC$7613167c7537901ea92074ac3aee512f8334554db730b64e0f3018fa9b5a5568d3c8f192da243c0d5791e044db4a2eaa7476fe5069e1ded61272071a783cf5de</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45752.21127630154</v>
       </c>
     </row>
   </sheetData>
